--- a/public/bundles/ican/excel/invoice.xlsx
+++ b/public/bundles/ican/excel/invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/usr/local/var/www/constructora/public/bundles/ican/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB95884F-5ACB-444E-AEF2-00FDFD9F4B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE16DD3-680F-4440-8023-41071901AF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="2" r:id="rId1"/>
@@ -716,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -772,9 +772,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -814,6 +811,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -832,21 +847,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -945,9 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2172,7 +2169,7 @@
   <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2218,7 +2215,7 @@
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2231,7 +2228,7 @@
       </c>
       <c r="E5" s="75"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="78"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
@@ -2242,7 +2239,7 @@
       </c>
       <c r="E6" s="75"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="79"/>
+      <c r="I6" s="78"/>
     </row>
     <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
@@ -2353,2078 +2350,2078 @@
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="21"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:13" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="24" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="25"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="25"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="25"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="30"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="25"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="25"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="25"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="24"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="25"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="24"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="25"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="24"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="25"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="24"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="25"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="24"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="25"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="30"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="24"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="25"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="24"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="25"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="24"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="25"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="25"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="24"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="25"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="25"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="24"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="25"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="30"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="24"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="32"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="30"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="31"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="25"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="32"/>
-      <c r="L95" s="30"/>
-      <c r="M95" s="30"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="31"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="25"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="32"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="30"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="31"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
     </row>
     <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="32"/>
-      <c r="L97" s="30"/>
-      <c r="M97" s="30"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="31"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
     </row>
     <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="32"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="30"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="31"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
     </row>
     <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="25"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="32"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="30"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="31"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
     </row>
     <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="25"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="32"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="31"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
     </row>
     <row r="101" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="32"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="30"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="31"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="32"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="30"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="31"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
     </row>
     <row r="103" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="25"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="32"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="30"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="31"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
     </row>
     <row r="104" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="32"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="30"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="31"/>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
     </row>
     <row r="105" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="32"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="30"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="31"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
     </row>
     <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="32"/>
-      <c r="L106" s="30"/>
-      <c r="M106" s="30"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="31"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
     </row>
     <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="25"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="32"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="30"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="31"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
     </row>
     <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="32"/>
-      <c r="L108" s="30"/>
-      <c r="M108" s="30"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="31"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
     </row>
     <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="32"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="30"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="31"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="25"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="32"/>
-      <c r="L110" s="30"/>
-      <c r="M110" s="30"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="31"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
     </row>
     <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="25"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="32"/>
-      <c r="L111" s="30"/>
-      <c r="M111" s="30"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="31"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
     </row>
     <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="25"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="32"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="30"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="31"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="25"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="32"/>
-      <c r="L113" s="30"/>
-      <c r="M113" s="30"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="31"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="25"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="32"/>
-      <c r="L114" s="30"/>
-      <c r="M114" s="30"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="31"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="25"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="32"/>
-      <c r="L115" s="30"/>
-      <c r="M115" s="30"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="33"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="31"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="25"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="32"/>
-      <c r="L116" s="30"/>
-      <c r="M116" s="30"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="31"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="25"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="32"/>
-      <c r="L117" s="30"/>
-      <c r="M117" s="30"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="33"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="31"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="25"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="32"/>
-      <c r="L118" s="30"/>
-      <c r="M118" s="30"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="33"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="31"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="25"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="32"/>
-      <c r="L119" s="30"/>
-      <c r="M119" s="30"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="31"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="25"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="32"/>
-      <c r="L120" s="30"/>
-      <c r="M120" s="30"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="31"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
     </row>
     <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="25"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="32"/>
-      <c r="L121" s="30"/>
-      <c r="M121" s="30"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="31"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="25"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="32"/>
-      <c r="L122" s="30"/>
-      <c r="M122" s="30"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="31"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
     </row>
     <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="25"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="32"/>
-      <c r="L123" s="30"/>
-      <c r="M123" s="30"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="31"/>
+      <c r="L123" s="29"/>
+      <c r="M123" s="29"/>
     </row>
     <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="25"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="32"/>
-      <c r="L124" s="30"/>
-      <c r="M124" s="30"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="31"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
     </row>
     <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="25"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="32"/>
-      <c r="L125" s="30"/>
-      <c r="M125" s="30"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="31"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="29"/>
     </row>
     <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="25"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="32"/>
-      <c r="L126" s="30"/>
-      <c r="M126" s="30"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="31"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
     </row>
     <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="25"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="32"/>
-      <c r="L127" s="30"/>
-      <c r="M127" s="30"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="31"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
     </row>
     <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="25"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="32"/>
-      <c r="L128" s="30"/>
-      <c r="M128" s="30"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="31"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="25"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="32"/>
-      <c r="L129" s="30"/>
-      <c r="M129" s="30"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="31"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="25"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="32"/>
-      <c r="L130" s="30"/>
-      <c r="M130" s="30"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="31"/>
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
     </row>
     <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="25"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="32"/>
-      <c r="L131" s="30"/>
-      <c r="M131" s="30"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="31"/>
+      <c r="L131" s="29"/>
+      <c r="M131" s="29"/>
     </row>
     <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="25"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="32"/>
-      <c r="L132" s="30"/>
-      <c r="M132" s="30"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="31"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="25"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="32"/>
-      <c r="L133" s="30"/>
-      <c r="M133" s="30"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="31"/>
+      <c r="L133" s="29"/>
+      <c r="M133" s="29"/>
     </row>
     <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="25"/>
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="32"/>
-      <c r="L134" s="30"/>
-      <c r="M134" s="30"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="31"/>
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="25"/>
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="32"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="31"/>
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="25"/>
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="32"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="31"/>
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="25"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="25"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="32"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="31"/>
     </row>
     <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="25"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="32"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="31"/>
     </row>
     <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="25"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="25"/>
-      <c r="F139" s="25"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="32"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="31"/>
     </row>
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="25"/>
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="32"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="31"/>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="25"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="32"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="31"/>
     </row>
     <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="25"/>
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="32"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="31"/>
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="25"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="32"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="31"/>
     </row>
     <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="25"/>
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="32"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="31"/>
     </row>
     <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="25"/>
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="32"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="31"/>
     </row>
     <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="25"/>
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="32"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="31"/>
     </row>
     <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="25"/>
-      <c r="B147" s="39"/>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="32"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="31"/>
     </row>
     <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="25"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="32"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="31"/>
     </row>
     <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="25"/>
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="32"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="31"/>
     </row>
     <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="25"/>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="27"/>
-      <c r="H150" s="32"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="31"/>
     </row>
     <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="25"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="27"/>
-      <c r="H151" s="32"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="33"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="31"/>
     </row>
     <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="25"/>
-      <c r="B152" s="39"/>
-      <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="25"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="27"/>
-      <c r="H152" s="32"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="31"/>
     </row>
     <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="25"/>
-      <c r="B153" s="39"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="25"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="32"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="31"/>
     </row>
     <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="25"/>
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="25"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="32"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="31"/>
     </row>
     <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="25"/>
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="32"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="33"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="31"/>
     </row>
     <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="25"/>
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="25"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="32"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="31"/>
     </row>
     <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="25"/>
-      <c r="B157" s="39"/>
-      <c r="C157" s="39"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="32"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="31"/>
     </row>
     <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="25"/>
-      <c r="E158" s="25"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="27"/>
+      <c r="A158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="26"/>
     </row>
     <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="25"/>
-      <c r="E159" s="25"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="27"/>
+      <c r="A159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="26"/>
     </row>
     <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="27"/>
+      <c r="A160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="26"/>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="25"/>
-      <c r="E161" s="25"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="27"/>
+      <c r="A161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="26"/>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="25"/>
-      <c r="E162" s="25"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="27"/>
+      <c r="A162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="26"/>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="25"/>
-      <c r="E163" s="25"/>
-      <c r="F163" s="25"/>
-      <c r="G163" s="27"/>
+      <c r="A163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="26"/>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="25"/>
-      <c r="E164" s="25"/>
-      <c r="F164" s="25"/>
-      <c r="G164" s="27"/>
+      <c r="A164" s="24"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="26"/>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="25"/>
-      <c r="E165" s="25"/>
-      <c r="F165" s="25"/>
-      <c r="G165" s="27"/>
+      <c r="A165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="26"/>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="25"/>
-      <c r="E166" s="25"/>
-      <c r="F166" s="25"/>
-      <c r="G166" s="27"/>
+      <c r="A166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="26"/>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="25"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="27"/>
+      <c r="A167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="26"/>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="25"/>
-      <c r="E168" s="25"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="27"/>
+      <c r="A168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="26"/>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="25"/>
-      <c r="E169" s="25"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="27"/>
+      <c r="A169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="26"/>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="25"/>
-      <c r="E170" s="25"/>
-      <c r="F170" s="25"/>
-      <c r="G170" s="27"/>
+      <c r="A170" s="24"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="26"/>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="25"/>
-      <c r="E171" s="25"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="27"/>
+      <c r="A171" s="24"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="26"/>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="25"/>
-      <c r="E172" s="25"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="27"/>
+      <c r="A172" s="24"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="26"/>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="25"/>
-      <c r="E173" s="25"/>
-      <c r="F173" s="25"/>
-      <c r="G173" s="27"/>
+      <c r="A173" s="24"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="26"/>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="25"/>
-      <c r="E174" s="25"/>
-      <c r="F174" s="25"/>
-      <c r="G174" s="27"/>
+      <c r="A174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="26"/>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="25"/>
-      <c r="E175" s="25"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="27"/>
+      <c r="A175" s="24"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="26"/>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="25"/>
-      <c r="E176" s="25"/>
-      <c r="F176" s="25"/>
-      <c r="G176" s="27"/>
+      <c r="A176" s="24"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="26"/>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="25"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="27"/>
+      <c r="A177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="26"/>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="25"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="25"/>
-      <c r="G178" s="27"/>
+      <c r="A178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="26"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="27"/>
+      <c r="A179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="26"/>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="25"/>
-      <c r="E180" s="25"/>
-      <c r="F180" s="25"/>
-      <c r="G180" s="27"/>
+      <c r="A180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="26"/>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="25"/>
-      <c r="E181" s="25"/>
-      <c r="F181" s="25"/>
-      <c r="G181" s="25"/>
+      <c r="A181" s="24"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="24"/>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="25"/>
-      <c r="E182" s="25"/>
-      <c r="F182" s="25"/>
-      <c r="G182" s="25"/>
+      <c r="A182" s="24"/>
+      <c r="E182" s="24"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="25"/>
-      <c r="E183" s="25"/>
-      <c r="F183" s="25"/>
-      <c r="G183" s="25"/>
+      <c r="A183" s="24"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="25"/>
-      <c r="E184" s="25"/>
-      <c r="F184" s="25"/>
-      <c r="G184" s="25"/>
+      <c r="A184" s="24"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="24"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="25"/>
-      <c r="E185" s="25"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="25"/>
+      <c r="A185" s="24"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="24"/>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="25"/>
-      <c r="E186" s="25"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="25"/>
+      <c r="A186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="25"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="25"/>
+      <c r="A187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="25"/>
-      <c r="E188" s="25"/>
-      <c r="F188" s="25"/>
-      <c r="G188" s="25"/>
+      <c r="A188" s="24"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="24"/>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="25"/>
-      <c r="E189" s="25"/>
-      <c r="F189" s="25"/>
-      <c r="G189" s="25"/>
+      <c r="A189" s="24"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="24"/>
+      <c r="G189" s="24"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="25"/>
-      <c r="E190" s="25"/>
-      <c r="F190" s="25"/>
-      <c r="G190" s="25"/>
+      <c r="A190" s="24"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="24"/>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="25"/>
-      <c r="E191" s="25"/>
-      <c r="F191" s="25"/>
-      <c r="G191" s="25"/>
+      <c r="A191" s="24"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="24"/>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="25"/>
-      <c r="E192" s="25"/>
-      <c r="F192" s="25"/>
-      <c r="G192" s="25"/>
+      <c r="A192" s="24"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="25"/>
-      <c r="E193" s="25"/>
-      <c r="F193" s="25"/>
-      <c r="G193" s="25"/>
+      <c r="A193" s="24"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="24"/>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="25"/>
-      <c r="E194" s="25"/>
-      <c r="F194" s="25"/>
-      <c r="G194" s="25"/>
+      <c r="A194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="24"/>
+      <c r="G194" s="24"/>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="25"/>
-      <c r="E195" s="25"/>
-      <c r="F195" s="25"/>
-      <c r="G195" s="25"/>
+      <c r="A195" s="24"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="24"/>
+      <c r="G195" s="24"/>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="25"/>
-      <c r="E196" s="25"/>
-      <c r="F196" s="25"/>
-      <c r="G196" s="25"/>
+      <c r="A196" s="24"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="24"/>
+      <c r="G196" s="24"/>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="25"/>
-      <c r="E197" s="25"/>
-      <c r="F197" s="25"/>
-      <c r="G197" s="25"/>
+      <c r="A197" s="24"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="24"/>
+      <c r="G197" s="24"/>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="25"/>
-      <c r="E198" s="25"/>
-      <c r="F198" s="25"/>
-      <c r="G198" s="25"/>
+      <c r="A198" s="24"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="24"/>
+      <c r="G198" s="24"/>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="25"/>
-      <c r="F199" s="25"/>
-      <c r="G199" s="25"/>
+      <c r="A199" s="24"/>
+      <c r="F199" s="24"/>
+      <c r="G199" s="24"/>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="25"/>
-      <c r="F200" s="25"/>
-      <c r="G200" s="25"/>
+      <c r="A200" s="24"/>
+      <c r="F200" s="24"/>
+      <c r="G200" s="24"/>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G201" s="25"/>
+      <c r="G201" s="24"/>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G202" s="25"/>
+      <c r="G202" s="24"/>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G203" s="25"/>
+      <c r="G203" s="24"/>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G204" s="25"/>
+      <c r="G204" s="24"/>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G205" s="25"/>
+      <c r="G205" s="24"/>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G206" s="25"/>
+      <c r="G206" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="160">
@@ -4437,17 +4434,6 @@
     <mergeCell ref="B144:D144"/>
     <mergeCell ref="B145:D145"/>
     <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B156:D156"/>
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="B133:D133"/>
@@ -4463,6 +4449,17 @@
     <mergeCell ref="B125:D125"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B156:D156"/>
     <mergeCell ref="B128:D128"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B130:D130"/>
@@ -4555,6 +4552,7 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B20:H21"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -4564,7 +4562,6 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B20:H21"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
@@ -4573,6 +4570,12 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:D50"/>
@@ -4582,12 +4585,6 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
